--- a/ra_exploer/examples/配向力_TR2_All.xlsx
+++ b/ra_exploer/examples/配向力_TR2_All.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hp06316p\技術開發一部&amp;二部\技術開發一部\技術開發三課\個人暫存區\康良豪\RA選擇器\Summary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dimsp\Documents\Projects\td_toolkits_reconstruc\ra_exploer\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35823AE-4A4C-4802-8EE4-06FAEF52D14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7965"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Δangle" sheetId="1" r:id="rId1"/>
@@ -24,53 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
-  <si>
-    <t>60oC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RA300hr</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>14Vp-p</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">60Hz </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>Δangle</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>60oC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RA300hr</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Nissan</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>72h</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Δangle</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>14Vp-p</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">60Hz </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -178,12 +143,16 @@
   <si>
     <t>N.A.</t>
   </si>
+  <si>
+    <t>T.B.D</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -638,14 +607,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="19.5"/>
   <cols>
     <col min="1" max="1" width="24.5" style="8" customWidth="1"/>
     <col min="2" max="2" width="21.25" style="8" customWidth="1"/>
@@ -659,234 +628,242 @@
     <col min="12" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="33">
       <c r="A1" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="39">
+      <c r="A2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E2" s="1">
         <v>0.13</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
+      <c r="F2" s="1">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1">
+        <v>60</v>
+      </c>
+      <c r="H2" s="1">
+        <v>72</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="39">
       <c r="A3" s="9" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1">
         <v>0.04</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>8</v>
+      <c r="F3" s="1">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1">
+        <v>60</v>
+      </c>
+      <c r="H3" s="1">
+        <v>72</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="21">
       <c r="A4" s="9" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1">
         <v>0.13</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>8</v>
+      <c r="F4" s="1">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1">
+        <v>60</v>
+      </c>
+      <c r="H4" s="1">
+        <v>72</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
         <v>200306</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="21">
       <c r="A5" s="9" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1">
         <v>0.05</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>8</v>
+      <c r="F5" s="1">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1">
+        <v>60</v>
+      </c>
+      <c r="H5" s="1">
+        <v>72</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
         <v>200320</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="21">
       <c r="A6" s="9" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1">
         <v>0.18</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="F6" s="1">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1">
+        <v>60</v>
+      </c>
+      <c r="H6" s="1">
+        <v>300</v>
+      </c>
+      <c r="I6" s="1">
+        <v>60</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="21">
       <c r="A7" s="9" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1">
         <v>0.08</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="F7" s="1">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1">
+        <v>60</v>
+      </c>
+      <c r="H7" s="1">
+        <v>300</v>
+      </c>
+      <c r="I7" s="1">
+        <v>60</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/ra_exploer/examples/配向力_TR2_All.xlsx
+++ b/ra_exploer/examples/配向力_TR2_All.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dimsp\Documents\Projects\td_toolkits_reconstruc\ra_exploer\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projects\td_toolkits_reconstruc\ra_exploer\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35823AE-4A4C-4802-8EE4-06FAEF52D14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29610" yWindow="-120" windowWidth="28110" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Δangle" sheetId="1" r:id="rId1"/>
@@ -151,8 +150,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -607,14 +606,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5" style="8" customWidth="1"/>
     <col min="2" max="2" width="21.25" style="8" customWidth="1"/>
@@ -628,7 +627,7 @@
     <col min="12" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="33">
+    <row r="1" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
@@ -663,7 +662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="39">
+    <row r="2" spans="1:11" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -696,7 +695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="39">
+    <row r="3" spans="1:11" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -729,7 +728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="21">
+    <row r="4" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -762,7 +761,7 @@
         <v>200306</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="21">
+    <row r="5" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
@@ -795,7 +794,7 @@
         <v>200320</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="21">
+    <row r="6" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>0</v>
       </c>
@@ -824,13 +823,13 @@
         <v>60</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="21">
+    <row r="7" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
@@ -859,7 +858,7 @@
         <v>60</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>22</v>

--- a/ra_exploer/examples/配向力_TR2_All.xlsx
+++ b/ra_exploer/examples/配向力_TR2_All.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dimsp\Documents\Projects\td_toolkits_reconstruc\ra_exploer\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35823AE-4A4C-4802-8EE4-06FAEF52D14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BF3F84-4DAC-41D9-BDD8-D9A44AF42BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Δangle" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>Δangle</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -142,10 +142,6 @@
   </si>
   <si>
     <t>N.A.</t>
-  </si>
-  <si>
-    <t>T.B.D</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -608,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5"/>
@@ -795,76 +791,6 @@
         <v>200320</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="21">
-      <c r="A6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="F6" s="1">
-        <v>14</v>
-      </c>
-      <c r="G6" s="1">
-        <v>60</v>
-      </c>
-      <c r="H6" s="1">
-        <v>300</v>
-      </c>
-      <c r="I6" s="1">
-        <v>60</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="21">
-      <c r="A7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="F7" s="1">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1">
-        <v>60</v>
-      </c>
-      <c r="H7" s="1">
-        <v>300</v>
-      </c>
-      <c r="I7" s="1">
-        <v>60</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
